--- a/deaths number of male  by age group.xlsx
+++ b/deaths number of male  by age group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22010" windowHeight="11380"/>
+    <workbookView windowWidth="15380" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="403">
   <si>
     <t>年龄</t>
   </si>
@@ -69,7 +69,7 @@
     <t>数据</t>
   </si>
   <si>
-    <t>XVI. 43</t>
+    <t xml:space="preserve">XVI. </t>
   </si>
   <si>
     <t>P20-29</t>
@@ -90,6 +90,12 @@
     <t>XVI. CERTAIN CONDITIONS ORIGINATING IN THE PERINATAL PERIOD</t>
   </si>
   <si>
+    <t>某些情况起源于围产期</t>
+  </si>
+  <si>
+    <t>围产期特有的呼吸和心血管疾病</t>
+  </si>
+  <si>
     <t>P20</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>XX. EXTERNAL CAUSES OF MORBIDITY AND MORTALITY</t>
   </si>
   <si>
+    <t>与妊娠期长短和胎儿生长有关的疾病</t>
+  </si>
+  <si>
     <t>P05</t>
   </si>
   <si>
@@ -183,6 +192,9 @@
     <t>20-34</t>
   </si>
   <si>
+    <t>受母体因素和妊娠、分娩并发症影响的胎儿和新生儿</t>
+  </si>
+  <si>
     <t>P01</t>
   </si>
   <si>
@@ -195,7 +207,7 @@
     <t>VI. DISEASES OF THE NERVOUS SYSTEM</t>
   </si>
   <si>
-    <t>XVIII.   22</t>
+    <t xml:space="preserve">XVIII. </t>
   </si>
   <si>
     <t>R95-99</t>
@@ -210,6 +222,12 @@
     <t>Sudden infant death syndrome</t>
   </si>
   <si>
+    <t>症状、体征及异常的临床和实验室表现，其他未分类</t>
+  </si>
+  <si>
+    <t>死因不明</t>
+  </si>
+  <si>
     <t>R99</t>
   </si>
   <si>
@@ -219,7 +237,7 @@
     <t>35-49</t>
   </si>
   <si>
-    <t>XVII.    12</t>
+    <t xml:space="preserve">XVII.    </t>
   </si>
   <si>
     <t>Q20-28</t>
@@ -234,6 +252,12 @@
     <t>Other congenital malformations of heart</t>
   </si>
   <si>
+    <t>先天性畸形，畸形和染色体异常</t>
+  </si>
+  <si>
+    <t>先天性循环系统畸形</t>
+  </si>
+  <si>
     <t>Q20</t>
   </si>
   <si>
@@ -267,6 +291,9 @@
     <t>Congenital malformations of the musculoskeletal system, not elsewhere classified</t>
   </si>
   <si>
+    <t>肌肉骨骼系统的先天性畸形和变形</t>
+  </si>
+  <si>
     <t>J00-J99</t>
   </si>
   <si>
@@ -291,6 +318,12 @@
     <t>Intentional self-harm by hanging, strangulation and suffocation</t>
   </si>
   <si>
+    <t>发病率和死亡率的外因</t>
+  </si>
+  <si>
+    <t>故意自残</t>
+  </si>
+  <si>
     <t>X80</t>
   </si>
   <si>
@@ -321,6 +354,9 @@
     <t>Accidental poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
   </si>
   <si>
+    <t>意外中毒或接触有毒物质</t>
+  </si>
+  <si>
     <t>X41</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>Pedestrian injured in collision with car, pick-up truck or van</t>
   </si>
   <si>
+    <t>行人在交通事故中受伤</t>
+  </si>
+  <si>
     <t>V04</t>
   </si>
   <si>
@@ -366,6 +405,9 @@
     <t>Car occupant injured in collision with fixed or stationary object</t>
   </si>
   <si>
+    <t>汽车乘客在交通事故中受伤</t>
+  </si>
+  <si>
     <t>V43</t>
   </si>
   <si>
@@ -393,6 +435,12 @@
     <t>Malignant neoplasm of brain</t>
   </si>
   <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>眼睛、大脑和中枢神经系统的其他部分</t>
+  </si>
+  <si>
     <t>C81-96</t>
   </si>
   <si>
@@ -405,6 +453,9 @@
     <t>Non-follicular lymphoma</t>
   </si>
   <si>
+    <t>原发或推定为淋巴、造血及相关组织的恶性肿瘤</t>
+  </si>
+  <si>
     <t>C91</t>
   </si>
   <si>
@@ -426,6 +477,12 @@
     <t>Cardiomyopathy</t>
   </si>
   <si>
+    <t>循环系统疾病</t>
+  </si>
+  <si>
+    <t>其他形式的心脏病</t>
+  </si>
+  <si>
     <t>I46</t>
   </si>
   <si>
@@ -444,6 +501,9 @@
     <t>Rheumatic mitral valve diseases</t>
   </si>
   <si>
+    <t>慢性风湿性心脏病</t>
+  </si>
+  <si>
     <t>XX</t>
   </si>
   <si>
@@ -471,6 +531,9 @@
     <t>Poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified, undetermined intent</t>
   </si>
   <si>
+    <t>意向未定事件</t>
+  </si>
+  <si>
     <t>Y11</t>
   </si>
   <si>
@@ -495,6 +558,9 @@
     <t>Assault by sharp object</t>
   </si>
   <si>
+    <t>攻击</t>
+  </si>
+  <si>
     <t>X95</t>
   </si>
   <si>
@@ -537,6 +603,9 @@
     <t>Malignant neoplasm of oesophagus</t>
   </si>
   <si>
+    <t>消化器官</t>
+  </si>
+  <si>
     <t>C18</t>
   </si>
   <si>
@@ -576,6 +645,12 @@
     <t>Epilepsy</t>
   </si>
   <si>
+    <t>神经系统疾病</t>
+  </si>
+  <si>
+    <t>发作性和阵发性疾病</t>
+  </si>
+  <si>
     <t>G80-83</t>
   </si>
   <si>
@@ -588,6 +663,9 @@
     <t>Cerebral palsy</t>
   </si>
   <si>
+    <t>脑性麻痹和其他麻痹症状</t>
+  </si>
+  <si>
     <t>G00-09</t>
   </si>
   <si>
@@ -600,6 +678,9 @@
     <t>Encephalitis, myelitis and encephalomyelitis</t>
   </si>
   <si>
+    <t>中枢神经系统的炎症性疾病</t>
+  </si>
+  <si>
     <t>G03</t>
   </si>
   <si>
@@ -699,6 +780,9 @@
     <t>Chronic ischaemic heart disease</t>
   </si>
   <si>
+    <t>缺血性心脏疾病</t>
+  </si>
+  <si>
     <t>I21</t>
   </si>
   <si>
@@ -744,6 +828,9 @@
     <t>Subarachnoid haemorrhage</t>
   </si>
   <si>
+    <t>脑血管疾病</t>
+  </si>
+  <si>
     <t>I63</t>
   </si>
   <si>
@@ -780,6 +867,9 @@
     <t>Phlebitis and thrombophlebitis</t>
   </si>
   <si>
+    <t>静脉、淋巴管和淋巴结疾病，其他未分类</t>
+  </si>
+  <si>
     <t>I82</t>
   </si>
   <si>
@@ -819,6 +909,9 @@
     <t>Malignant neoplasm of bronchus and lung</t>
   </si>
   <si>
+    <t>呼吸和胸内器官</t>
+  </si>
+  <si>
     <t>C32</t>
   </si>
   <si>
@@ -843,6 +936,9 @@
     <t>Malignant neoplasm of kidney, except renal pelvis</t>
   </si>
   <si>
+    <t>尿路</t>
+  </si>
+  <si>
     <t>C67</t>
   </si>
   <si>
@@ -873,6 +969,9 @@
     <t>Malignant neoplasm of prostate</t>
   </si>
   <si>
+    <t>男性生殖器官</t>
+  </si>
+  <si>
     <t>C60</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>Aortic aneurysm and dissection</t>
   </si>
   <si>
+    <t>动脉、小动脉和毛细血管疾病</t>
+  </si>
+  <si>
     <t>I73</t>
   </si>
   <si>
@@ -972,6 +1074,12 @@
     <t>Other chronic obstructive pulmonary disease</t>
   </si>
   <si>
+    <t>呼吸系统疾病</t>
+  </si>
+  <si>
+    <t>慢性下呼吸道疾病</t>
+  </si>
+  <si>
     <t>J47</t>
   </si>
   <si>
@@ -1002,6 +1110,9 @@
     <t>Pneumonia, organism unspecified</t>
   </si>
   <si>
+    <t>流感和肺炎</t>
+  </si>
+  <si>
     <t>J10</t>
   </si>
   <si>
@@ -1038,6 +1149,9 @@
     <t>Other interstitial pulmonary diseases</t>
   </si>
   <si>
+    <t>其他呼吸系统疾病，主要影响间质</t>
+  </si>
+  <si>
     <t>J60-70</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>Pneumonitis due to solids and liquids</t>
   </si>
   <si>
+    <t>肺部疾病由外部因素引起</t>
+  </si>
+  <si>
     <t>J61</t>
   </si>
   <si>
@@ -1120,6 +1237,9 @@
   </si>
   <si>
     <t>Unspecified acute lower respiratory infection</t>
+  </si>
+  <si>
+    <t>其他急性下呼吸道感染</t>
   </si>
   <si>
     <t>J20</t>
@@ -1135,10 +1255,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1170,6 +1290,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4A90E2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1181,11 +1318,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,74 +1421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,28 +1446,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,7 +1501,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,97 +1645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,67 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,16 +1705,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,8 +1722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,9 +1745,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,27 +1779,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,10 +1800,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,137 +1812,137 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,6 +1967,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1842,7 +1985,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1854,43 +1997,31 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2217,14 +2348,16 @@
   <sheetPr/>
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11" style="3"/>
-    <col min="4" max="5" width="39.1615384615385" customWidth="1"/>
+    <col min="2" max="2" width="46.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="52.8461538461538" customWidth="1"/>
+    <col min="5" max="5" width="39.1615384615385" customWidth="1"/>
     <col min="6" max="6" width="5.53846153846154" customWidth="1"/>
     <col min="7" max="7" width="26.5384615384615" customWidth="1"/>
   </cols>
@@ -2254,11 +2387,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2287,342 +2420,358 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="6:13">
+      <c r="M2" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="K3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="6:13">
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="14">
+      <c r="K4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="6:13">
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="6:13">
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="K6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="16">
+      <c r="K7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="18">
         <v>60</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="16">
+      <c r="K8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="18">
         <v>18</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="16">
+        <v>43</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="18">
         <v>5</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="3:14">
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="K11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="7"/>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="16">
+      <c r="K12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="18">
         <v>403</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="16">
+        <v>43</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="18">
         <v>35</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="16">
+        <v>43</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="18">
         <v>26</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>21</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="7"/>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="19">
+        <v>43</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="16">
         <v>705</v>
       </c>
     </row>
@@ -2630,22 +2779,22 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="19">
+        <v>43</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="16">
         <v>234</v>
       </c>
     </row>
@@ -2654,144 +2803,151 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="19">
+      <c r="J19" s="19"/>
+      <c r="K19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="16">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="6:13">
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="18">
+      <c r="J22" s="19"/>
+      <c r="K22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="20">
         <v>5409</v>
       </c>
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="18">
+      <c r="J23" s="19"/>
+      <c r="K23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="20">
         <v>3877</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="18">
+        <v>43</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="20">
         <v>1402</v>
       </c>
     </row>
@@ -2799,243 +2955,249 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="3:16">
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="18">
+      <c r="A27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="20">
         <v>3518</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
       <c r="P27"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="11" t="s">
-        <v>29</v>
+      <c r="A28" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="18">
+      <c r="J28" s="19"/>
+      <c r="K28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="20">
         <v>2845</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="18">
+      <c r="K29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="20">
         <v>1771</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E32">
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3047,18 +3209,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="6:12">
+    <row r="37" spans="4:12">
+      <c r="D37" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L37" s="21">
         <v>164</v>
@@ -3066,16 +3231,16 @@
     </row>
     <row r="38" spans="6:12">
       <c r="F38" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L38" s="21">
         <v>806</v>
@@ -3083,16 +3248,16 @@
     </row>
     <row r="39" spans="6:12">
       <c r="F39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L39" s="21">
         <v>2460</v>
@@ -3100,42 +3265,45 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L40" s="21">
         <v>25787</v>
       </c>
     </row>
-    <row r="41" spans="6:12">
+    <row r="41" spans="4:12">
+      <c r="D41" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F41" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="L41" s="24">
         <v>29092</v>
@@ -3143,10 +3311,10 @@
     </row>
     <row r="42" spans="6:8">
       <c r="F42" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3154,112 +3322,119 @@
     </row>
     <row r="43" ht="16" customHeight="1" spans="6:8">
       <c r="F43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1"/>
     <row r="45" ht="16" customHeight="1" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H45">
         <v>8</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="2:8">
-      <c r="B46" s="12"/>
+      <c r="B46" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="2:8">
-      <c r="B47" s="12"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="2:8">
-      <c r="B48" s="12"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="2:4">
-      <c r="B49" s="12"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" ht="16" customHeight="1" spans="3:8">
       <c r="C50" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" ht="16" customHeight="1" spans="6:8">
+    <row r="51" ht="16" customHeight="1" spans="4:8">
+      <c r="D51" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F51" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -3267,57 +3442,62 @@
     </row>
     <row r="52" ht="16" customHeight="1" spans="6:8">
       <c r="F52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="6:8">
       <c r="F53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="2:8">
       <c r="B54" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="16" customHeight="1" spans="3:8">
+    <row r="55" ht="16" customHeight="1" spans="2:8">
+      <c r="B55" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="F55" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3325,115 +3505,124 @@
     </row>
     <row r="56" ht="16" customHeight="1" spans="6:8">
       <c r="F56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" ht="16" customHeight="1" spans="6:8">
       <c r="F57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="3:8">
       <c r="C58" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="16" customHeight="1" spans="6:8">
+    <row r="59" ht="16" customHeight="1" spans="4:8">
+      <c r="D59" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="6:8">
       <c r="F60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="6:8">
       <c r="F61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:1">
-      <c r="A62" s="8"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E63">
         <v>188</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H63">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="3:8">
+    <row r="64" spans="2:8">
+      <c r="B64" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="C64" s="5"/>
+      <c r="D64" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F64" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H64">
         <v>22</v>
@@ -3442,10 +3631,10 @@
     <row r="65" spans="3:8">
       <c r="C65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -3453,10 +3642,10 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3464,30 +3653,33 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E67">
         <v>131</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H67">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="6:8">
+    <row r="68" spans="4:8">
+      <c r="D68" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F68" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -3497,10 +3689,10 @@
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -3510,10 +3702,10 @@
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -3521,19 +3713,19 @@
     </row>
     <row r="71" spans="3:8">
       <c r="C71" s="6" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E71">
         <v>21</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="H71">
         <v>10</v>
@@ -3541,12 +3733,14 @@
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
+      <c r="D72" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="F72" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -3556,10 +3750,10 @@
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -3569,41 +3763,44 @@
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="6" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E75">
         <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H75">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="6:8">
+    <row r="76" spans="4:8">
+      <c r="D76" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="F76" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -3611,10 +3808,10 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3622,10 +3819,10 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3633,163 +3830,174 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E79">
         <v>12</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="12"/>
+      <c r="B80" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F80" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="12"/>
+      <c r="B81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="12"/>
+      <c r="B82" s="7"/>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="12"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E83">
         <v>9</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H83">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="12"/>
-      <c r="F84" s="25" t="s">
-        <v>40</v>
+      <c r="B84" s="7"/>
+      <c r="D84" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="12"/>
-      <c r="F85" s="25" t="s">
-        <v>40</v>
+      <c r="B85" s="7"/>
+      <c r="F85" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="12"/>
-      <c r="F86" s="25" t="s">
-        <v>40</v>
+      <c r="B86" s="7"/>
+      <c r="F86" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="12"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="6" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>8</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="12"/>
+      <c r="B88" s="7"/>
+      <c r="D88" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="F88" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="12"/>
+      <c r="B89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3797,10 +4005,10 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -3809,10 +4017,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="4"/>
       <c r="F91" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3820,25 +4028,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E92">
         <v>7</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H92">
         <v>7</v>
@@ -3846,59 +4054,65 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="4"/>
-      <c r="F93" s="25" t="s">
-        <v>40</v>
+      <c r="B93" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="4"/>
-      <c r="B94" s="12"/>
-      <c r="F94" s="25" t="s">
-        <v>40</v>
+      <c r="B94" s="7"/>
+      <c r="F94" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="4"/>
-      <c r="B95" s="12"/>
-      <c r="F95" s="25" t="s">
-        <v>40</v>
+      <c r="B95" s="7"/>
+      <c r="F95" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="4"/>
-      <c r="B96" s="12"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="6" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E96">
         <v>7</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H96">
         <v>7</v>
@@ -3906,60 +4120,63 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="4"/>
-      <c r="B97" s="12"/>
-      <c r="F97" s="25" t="s">
-        <v>40</v>
+      <c r="B97" s="7"/>
+      <c r="D97" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4"/>
-      <c r="B98" s="12"/>
-      <c r="F98" s="25" t="s">
-        <v>40</v>
+      <c r="B98" s="7"/>
+      <c r="F98" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="4"/>
-      <c r="B99" s="12"/>
-      <c r="F99" s="25" t="s">
-        <v>40</v>
+      <c r="B99" s="7"/>
+      <c r="F99" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="4"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="6" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E100">
         <v>4</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -3967,12 +4184,15 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="4"/>
-      <c r="B101" s="12"/>
+      <c r="B101" s="7"/>
+      <c r="D101" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="F101" s="7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -3980,12 +4200,12 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="4"/>
-      <c r="B102" s="12"/>
+      <c r="B102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3993,40 +4213,46 @@
     </row>
     <row r="103" s="1" customFormat="1" spans="1:2">
       <c r="A103" s="26"/>
-      <c r="B103" s="10"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>90</v>
+        <v>155</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E104">
         <v>446</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>93</v>
+        <v>219</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H104">
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="6:8">
+    <row r="105" spans="2:8">
+      <c r="B105" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F105" t="s">
-        <v>193</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>95</v>
+        <v>220</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H105">
         <v>50</v>
@@ -4034,10 +4260,10 @@
     </row>
     <row r="106" spans="6:8">
       <c r="F106" t="s">
-        <v>194</v>
-      </c>
-      <c r="G106" s="27" t="s">
-        <v>195</v>
+        <v>221</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="H106">
         <v>19</v>
@@ -4045,41 +4271,44 @@
     </row>
     <row r="107" spans="6:8">
       <c r="F107" t="s">
-        <v>196</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>137</v>
+        <v>223</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H107">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="3:8">
-      <c r="C108" s="27" t="s">
-        <v>80</v>
+      <c r="C108" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E108">
         <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>83</v>
+        <v>225</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="H108">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="6:8">
+    <row r="109" spans="4:8">
+      <c r="D109" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F109" t="s">
-        <v>199</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H109">
         <v>12</v>
@@ -4087,10 +4316,10 @@
     </row>
     <row r="110" spans="6:8">
       <c r="F110" t="s">
-        <v>200</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>87</v>
+        <v>227</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="H110">
         <v>8</v>
@@ -4098,41 +4327,44 @@
     </row>
     <row r="111" spans="6:8">
       <c r="F111" t="s">
-        <v>201</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>202</v>
+        <v>228</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="H111">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="3:8">
-      <c r="C112" s="27" t="s">
-        <v>140</v>
+      <c r="C112" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D112" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E112">
         <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>143</v>
+        <v>231</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="H112">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="6:8">
+    <row r="113" spans="4:8">
+      <c r="D113" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="F113" t="s">
-        <v>205</v>
-      </c>
-      <c r="G113" s="27" t="s">
-        <v>206</v>
+        <v>232</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -4140,10 +4372,10 @@
     </row>
     <row r="114" spans="6:8">
       <c r="F114" t="s">
-        <v>207</v>
-      </c>
-      <c r="G114" s="27" t="s">
-        <v>208</v>
+        <v>234</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -4151,42 +4383,45 @@
     </row>
     <row r="115" spans="6:11">
       <c r="F115" t="s">
-        <v>209</v>
-      </c>
-      <c r="G115" s="27" t="s">
-        <v>147</v>
+        <v>236</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
-      <c r="K115" s="27"/>
+      <c r="K115" s="7"/>
     </row>
     <row r="116" spans="3:8">
-      <c r="C116" s="27" t="s">
-        <v>148</v>
+      <c r="C116" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E116">
         <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>211</v>
-      </c>
-      <c r="G116" s="27" t="s">
-        <v>151</v>
+        <v>238</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="H116">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="4:8">
+      <c r="D117" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="F117" t="s">
-        <v>212</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>157</v>
+        <v>239</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -4194,10 +4429,10 @@
     </row>
     <row r="118" spans="6:8">
       <c r="F118" t="s">
-        <v>213</v>
-      </c>
-      <c r="G118" s="27" t="s">
-        <v>214</v>
+        <v>240</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -4205,36 +4440,42 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E119">
         <v>117</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G119" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="H119">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="6:8">
+    <row r="120" spans="2:8">
+      <c r="B120" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G120" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="H120">
         <v>53</v>
@@ -4242,98 +4483,101 @@
     </row>
     <row r="121" spans="6:8">
       <c r="F121" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="6:8">
       <c r="F122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="3:10">
       <c r="C123" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E123">
         <v>49</v>
       </c>
-      <c r="F123" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G123" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H123" s="27">
+      <c r="F123" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H123" s="7">
         <v>22</v>
       </c>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-    </row>
-    <row r="124" spans="6:8">
-      <c r="F124" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" s="27" t="s">
-        <v>128</v>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="4:8">
+      <c r="D124" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="H124">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="6:8">
-      <c r="F125" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>226</v>
+      <c r="F125" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="6:8">
-      <c r="F126" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G126" s="27" t="s">
-        <v>228</v>
+      <c r="F126" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="6:8">
-      <c r="F127" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>130</v>
+      <c r="F127" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="6:8">
-      <c r="F128" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>230</v>
+      <c r="F128" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -4341,105 +4585,111 @@
     </row>
     <row r="129" spans="3:8">
       <c r="C129" t="s">
-        <v>231</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E129" s="27">
+        <v>259</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E129" s="7">
         <v>32</v>
       </c>
-      <c r="F129" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="G129" s="27" t="s">
-        <v>234</v>
+      <c r="F129" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="H129">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="6:8">
-      <c r="F130" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>236</v>
+    <row r="130" spans="4:8">
+      <c r="D130" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="H130">
         <v>6</v>
       </c>
     </row>
     <row r="131" spans="6:8">
-      <c r="F131" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G131" s="27" t="s">
-        <v>238</v>
+      <c r="F131" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="H131">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="6:8">
-      <c r="F132" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="G132" s="27" t="s">
-        <v>240</v>
+      <c r="F132" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="H132">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="6:8">
-      <c r="F133" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>242</v>
+      <c r="F133" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
     </row>
     <row r="134" spans="3:8">
-      <c r="C134" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>244</v>
+      <c r="C134" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="E134">
         <v>12</v>
       </c>
-      <c r="F134" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G134" s="27" t="s">
-        <v>246</v>
+      <c r="F134" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="H134">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="6:8">
-      <c r="F135" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="G135" s="27" t="s">
-        <v>248</v>
+    <row r="135" spans="4:8">
+      <c r="D135" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="6:8">
-      <c r="F136" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="G136" s="27" t="s">
-        <v>250</v>
+      <c r="F136" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -4447,153 +4697,165 @@
     </row>
     <row r="137" spans="6:8">
       <c r="F137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>163</v>
+        <v>281</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E138">
         <v>77</v>
       </c>
-      <c r="F138" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="G138" s="27" t="s">
-        <v>253</v>
+      <c r="F138" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="H138">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="6:8">
-      <c r="F139" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" s="27" t="s">
-        <v>165</v>
+    <row r="139" spans="2:8">
+      <c r="B139" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="H139">
         <v>12</v>
       </c>
     </row>
     <row r="140" spans="6:8">
-      <c r="F140" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" s="27" t="s">
-        <v>171</v>
+      <c r="F140" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="H140">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="6:8">
-      <c r="F141" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G141" s="27" t="s">
-        <v>255</v>
+      <c r="F141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="H141">
         <v>11</v>
       </c>
     </row>
     <row r="142" spans="3:8">
-      <c r="C142" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>257</v>
+      <c r="C142" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E142">
         <v>38</v>
       </c>
-      <c r="F142" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="G142" s="27" t="s">
-        <v>259</v>
+      <c r="F142" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="H142">
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="6:8">
-      <c r="F143" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G143" s="27" t="s">
-        <v>261</v>
+    <row r="143" spans="4:8">
+      <c r="D143" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="H143">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="6:8">
-      <c r="F144" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="G144" s="27" t="s">
-        <v>263</v>
+      <c r="F144" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="6:8">
-      <c r="F145" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" s="27" t="s">
-        <v>40</v>
+      <c r="F145" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="3:8">
-      <c r="C146" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>265</v>
+      <c r="C146" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="E146">
         <v>25</v>
       </c>
-      <c r="F146" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G146" s="27" t="s">
-        <v>267</v>
+      <c r="F146" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="H146">
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="6:8">
-      <c r="F147" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="G147" s="27" t="s">
-        <v>269</v>
+    <row r="147" spans="4:8">
+      <c r="D147" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="H147">
         <v>8</v>
@@ -4601,289 +4863,307 @@
     </row>
     <row r="148" spans="7:8">
       <c r="G148" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H148" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="7:8">
       <c r="G149" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H149" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="3:8">
-      <c r="C150" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>115</v>
+      <c r="C150" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E150">
         <v>19</v>
       </c>
-      <c r="F150" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G150" s="27" t="s">
-        <v>117</v>
+      <c r="F150" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="H150">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="6:8">
+    <row r="151" spans="4:8">
+      <c r="D151" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="6:8">
       <c r="F153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
-      <c r="A154" s="29"/>
+      <c r="A154" s="27"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>163</v>
+        <v>281</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E155">
         <v>1850</v>
       </c>
-      <c r="F155" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" s="27" t="s">
-        <v>165</v>
+      <c r="F155" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="H155">
         <v>423</v>
       </c>
     </row>
-    <row r="156" spans="6:8">
-      <c r="F156" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G156" s="27" t="s">
-        <v>255</v>
+    <row r="156" spans="2:8">
+      <c r="B156" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="H156">
         <v>302</v>
       </c>
     </row>
     <row r="157" spans="6:8">
-      <c r="F157" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G157" s="27" t="s">
-        <v>167</v>
+      <c r="F157" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="H157">
         <v>299</v>
       </c>
     </row>
     <row r="158" ht="19" customHeight="1" spans="6:8">
-      <c r="F158" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" s="27" t="s">
-        <v>171</v>
+      <c r="F158" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="H158">
         <v>255</v>
       </c>
     </row>
     <row r="159" spans="3:8">
-      <c r="C159" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>257</v>
+      <c r="C159" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E159">
         <v>1488</v>
       </c>
-      <c r="F159" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="G159" s="27" t="s">
-        <v>259</v>
+      <c r="F159" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="H159">
         <v>1400</v>
       </c>
     </row>
-    <row r="160" spans="6:8">
-      <c r="F160" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G160" s="27" t="s">
-        <v>261</v>
+    <row r="160" spans="4:8">
+      <c r="D160" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="H160">
         <v>63</v>
       </c>
     </row>
     <row r="161" spans="6:8">
-      <c r="F161" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G161" s="27" t="s">
-        <v>271</v>
+      <c r="F161" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="H161">
         <v>16</v>
       </c>
     </row>
     <row r="162" spans="6:8">
-      <c r="F162" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="G162" s="27" t="s">
-        <v>273</v>
+      <c r="F162" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="3:8">
-      <c r="C163" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>275</v>
+      <c r="C163" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="E163">
         <v>461</v>
       </c>
-      <c r="F163" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G163" s="27" t="s">
-        <v>277</v>
+      <c r="F163" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="H163">
         <v>441</v>
       </c>
     </row>
-    <row r="164" spans="6:8">
-      <c r="F164" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G164" s="27" t="s">
-        <v>279</v>
+    <row r="164" spans="4:8">
+      <c r="D164" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="H164">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="6:8">
-      <c r="F165" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G165" s="27" t="s">
-        <v>281</v>
+      <c r="F165" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
     </row>
     <row r="166" spans="6:8">
-      <c r="F166" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G166" s="27" t="s">
-        <v>283</v>
+      <c r="F166" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="3:8">
-      <c r="C167" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D167" s="27" t="s">
-        <v>119</v>
+      <c r="C167" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E167">
         <v>364</v>
       </c>
-      <c r="F167" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G167" s="27" t="s">
-        <v>159</v>
+      <c r="F167" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="H167">
         <v>92</v>
       </c>
     </row>
-    <row r="168" spans="6:8">
-      <c r="F168" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="G168" s="27" t="s">
-        <v>285</v>
+    <row r="168" spans="4:8">
+      <c r="D168" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="H168">
         <v>77</v>
       </c>
     </row>
     <row r="169" spans="6:8">
-      <c r="F169" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G169" s="27" t="s">
-        <v>121</v>
+      <c r="F169" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H169">
         <v>53</v>
       </c>
     </row>
     <row r="170" spans="6:8">
-      <c r="F170" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="G170" s="27" t="s">
-        <v>161</v>
+      <c r="F170" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="H170">
         <v>50</v>
@@ -4891,47 +5171,53 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>217</v>
+        <v>242</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E172">
         <v>2287</v>
       </c>
-      <c r="F172" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="G172" s="27" t="s">
-        <v>221</v>
+      <c r="F172" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="H172">
         <v>1370</v>
       </c>
     </row>
-    <row r="173" spans="6:8">
-      <c r="F173" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G173" s="27" t="s">
-        <v>219</v>
+    <row r="173" spans="2:8">
+      <c r="B173" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="H173">
         <v>907</v>
       </c>
     </row>
     <row r="174" spans="6:8">
-      <c r="F174" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="G174" s="27" t="s">
-        <v>288</v>
+      <c r="F174" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="H174">
         <v>10</v>
@@ -4939,180 +5225,189 @@
     </row>
     <row r="175" spans="6:8">
       <c r="F175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" spans="3:8">
-      <c r="C176" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D176" s="27" t="s">
-        <v>232</v>
+      <c r="C176" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="E176">
         <v>694</v>
       </c>
-      <c r="F176" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G176" s="27" t="s">
-        <v>238</v>
+      <c r="F176" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="H176">
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="6:8">
-      <c r="F177" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G177" s="27" t="s">
-        <v>236</v>
+    <row r="177" spans="4:8">
+      <c r="D177" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="H177">
         <v>154</v>
       </c>
     </row>
     <row r="178" spans="6:8">
-      <c r="F178" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G178" s="27" t="s">
-        <v>291</v>
+      <c r="F178" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="H178">
         <v>128</v>
       </c>
     </row>
     <row r="179" spans="6:8">
-      <c r="F179" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="G179" s="27" t="s">
-        <v>240</v>
+      <c r="F179" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="H179">
         <v>123</v>
       </c>
     </row>
     <row r="180" spans="3:8">
-      <c r="C180" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>126</v>
+      <c r="C180" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E180">
         <v>420</v>
       </c>
-      <c r="F180" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G180" s="27" t="s">
-        <v>224</v>
+      <c r="F180" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="H180">
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="6:8">
-      <c r="F181" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G181" s="27" t="s">
-        <v>228</v>
+    <row r="181" spans="4:8">
+      <c r="D181" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="H181">
         <v>77</v>
       </c>
     </row>
     <row r="182" spans="6:8">
-      <c r="F182" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G182" s="27" t="s">
-        <v>293</v>
+      <c r="F182" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="H182">
         <v>76</v>
       </c>
     </row>
     <row r="183" spans="6:8">
-      <c r="F183" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G183" s="27" t="s">
-        <v>128</v>
+      <c r="F183" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="H183">
         <v>65</v>
       </c>
     </row>
     <row r="184" spans="3:8">
-      <c r="C184" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>295</v>
+      <c r="C184" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="E184">
         <v>226</v>
       </c>
-      <c r="F184" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G184" s="27" t="s">
-        <v>297</v>
+      <c r="F184" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="H184">
         <v>123</v>
       </c>
     </row>
-    <row r="185" spans="6:8">
-      <c r="F185" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G185" s="27" t="s">
-        <v>299</v>
+    <row r="185" spans="4:8">
+      <c r="D185" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="H185">
         <v>68</v>
       </c>
     </row>
     <row r="186" spans="6:8">
-      <c r="F186" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G186" s="27" t="s">
-        <v>301</v>
+      <c r="F186" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="H186">
         <v>17</v>
       </c>
     </row>
     <row r="187" spans="6:8">
-      <c r="F187" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G187" s="27" t="s">
-        <v>303</v>
+      <c r="F187" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="H187">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="6:8">
-      <c r="F188" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G188" s="27" t="s">
-        <v>305</v>
+      <c r="F188" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="H188">
         <v>6</v>
@@ -5120,449 +5415,479 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>306</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>308</v>
+        <v>340</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="E189">
         <v>831</v>
       </c>
-      <c r="F189" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G189" s="27" t="s">
-        <v>310</v>
+      <c r="F189" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="H189">
         <v>765</v>
       </c>
     </row>
-    <row r="190" spans="6:8">
-      <c r="F190" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G190" s="27" t="s">
-        <v>312</v>
+    <row r="190" spans="2:8">
+      <c r="B190" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="H190">
         <v>29</v>
       </c>
     </row>
     <row r="191" spans="6:8">
-      <c r="F191" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="G191" s="27" t="s">
-        <v>314</v>
+      <c r="F191" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="H191">
         <v>27</v>
       </c>
     </row>
     <row r="192" spans="6:8">
-      <c r="F192" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G192" s="27" t="s">
-        <v>316</v>
+      <c r="F192" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="H192">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="3:8">
-      <c r="C193" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>318</v>
+      <c r="C193" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="E193">
         <v>263</v>
       </c>
-      <c r="F193" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="G193" s="27" t="s">
-        <v>320</v>
+      <c r="F193" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="H193">
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="6:8">
-      <c r="F194" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G194" s="27" t="s">
-        <v>322</v>
+    <row r="194" spans="4:8">
+      <c r="D194" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="H194">
         <v>48</v>
       </c>
     </row>
     <row r="195" spans="6:8">
-      <c r="F195" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G195" s="27" t="s">
-        <v>324</v>
+      <c r="F195" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="H195">
         <v>13</v>
       </c>
     </row>
     <row r="196" spans="6:8">
-      <c r="F196" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G196" s="27" t="s">
-        <v>326</v>
+      <c r="F196" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="H196">
         <v>6</v>
       </c>
     </row>
     <row r="197" spans="6:8">
-      <c r="F197" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="G197" s="27" t="s">
-        <v>328</v>
+      <c r="F197" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="H197">
         <v>6</v>
       </c>
     </row>
     <row r="198" spans="3:8">
-      <c r="C198" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>330</v>
+      <c r="C198" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="E198">
         <v>202</v>
       </c>
-      <c r="F198" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G198" s="27" t="s">
-        <v>332</v>
+      <c r="F198" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H198">
         <v>2202</v>
       </c>
     </row>
-    <row r="199" spans="6:8">
+    <row r="199" spans="4:8">
+      <c r="D199" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H199" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="6:8">
       <c r="F200" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H200" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="6:8">
       <c r="F201" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H201" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="3:8">
-      <c r="C202" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="D202" s="27" t="s">
-        <v>334</v>
+      <c r="C202" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="E202">
         <v>41</v>
       </c>
-      <c r="F202" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G202" s="27" t="s">
-        <v>336</v>
+      <c r="F202" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="H202">
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="6:8">
-      <c r="F203" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G203" s="27" t="s">
-        <v>338</v>
+    <row r="203" spans="4:8">
+      <c r="D203" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="H203">
         <v>5</v>
       </c>
     </row>
     <row r="204" spans="6:8">
-      <c r="F204" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G204" s="27" t="s">
-        <v>340</v>
+      <c r="F204" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="H204">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="6:8">
-      <c r="F205" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="G205" s="27" t="s">
-        <v>342</v>
+      <c r="F205" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:1">
-      <c r="A206" s="29"/>
+      <c r="A206" s="27"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
-      </c>
-      <c r="C207" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>217</v>
+        <v>242</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E207">
         <v>1581</v>
       </c>
-      <c r="F207" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G207" s="27" t="s">
-        <v>293</v>
+      <c r="F207" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="H207">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="6:8">
-      <c r="F208" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G208" s="27" t="s">
-        <v>228</v>
+    <row r="208" spans="2:8">
+      <c r="B208" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="H208">
         <v>148</v>
       </c>
     </row>
     <row r="209" spans="6:8">
-      <c r="F209" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G209" s="27" t="s">
-        <v>344</v>
+      <c r="F209" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="H209">
         <v>94</v>
       </c>
     </row>
     <row r="210" spans="6:8">
-      <c r="F210" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G210" s="27" t="s">
-        <v>224</v>
+      <c r="F210" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="H210">
         <v>60</v>
       </c>
     </row>
     <row r="211" spans="3:8">
-      <c r="C211" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>232</v>
+      <c r="C211" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="E211">
         <v>891</v>
       </c>
-      <c r="F211" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G211" s="27" t="s">
-        <v>238</v>
+      <c r="F211" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="H211">
         <v>350</v>
       </c>
     </row>
-    <row r="212" spans="6:8">
-      <c r="F212" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G212" s="27" t="s">
-        <v>291</v>
+    <row r="212" spans="4:8">
+      <c r="D212" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="H212">
         <v>188</v>
       </c>
     </row>
     <row r="213" spans="6:8">
-      <c r="F213" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G213" s="27" t="s">
-        <v>236</v>
+      <c r="F213" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="H213">
         <v>156</v>
       </c>
     </row>
     <row r="214" spans="6:8">
-      <c r="F214" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="G214" s="27" t="s">
-        <v>240</v>
+      <c r="F214" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="H214">
         <v>77</v>
       </c>
     </row>
     <row r="215" spans="3:8">
-      <c r="C215" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D215" s="27" t="s">
-        <v>126</v>
+      <c r="C215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E215">
         <v>618</v>
       </c>
-      <c r="F215" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G215" s="27" t="s">
-        <v>293</v>
+      <c r="F215" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="H215">
         <v>238</v>
       </c>
     </row>
-    <row r="216" spans="6:8">
-      <c r="F216" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G216" s="27" t="s">
-        <v>228</v>
+    <row r="216" spans="4:8">
+      <c r="D216" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="H216">
         <v>148</v>
       </c>
     </row>
     <row r="217" spans="6:8">
-      <c r="F217" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G217" s="27" t="s">
-        <v>344</v>
+      <c r="F217" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="H217">
         <v>94</v>
       </c>
     </row>
     <row r="218" spans="6:8">
-      <c r="F218" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G218" s="27" t="s">
-        <v>224</v>
+      <c r="F218" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="H218">
         <v>60</v>
       </c>
     </row>
     <row r="219" spans="3:8">
-      <c r="C219" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>295</v>
+      <c r="C219" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="E219">
         <v>245</v>
       </c>
-      <c r="F219" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G219" s="27" t="s">
-        <v>297</v>
+      <c r="F219" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="H219">
         <v>128</v>
       </c>
     </row>
-    <row r="220" spans="6:8">
-      <c r="F220" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G220" s="27" t="s">
-        <v>299</v>
+    <row r="220" spans="4:8">
+      <c r="D220" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="H220">
         <v>95</v>
       </c>
     </row>
     <row r="221" spans="6:8">
-      <c r="F221" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G221" s="27" t="s">
-        <v>303</v>
+      <c r="F221" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="H221">
         <v>11</v>
       </c>
     </row>
     <row r="222" spans="6:8">
-      <c r="F222" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="G222" s="27" t="s">
-        <v>346</v>
+      <c r="F222" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="H222">
         <v>6</v>
@@ -5570,153 +5895,165 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B223" t="s">
-        <v>251</v>
-      </c>
-      <c r="C223" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>163</v>
+        <v>281</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E223">
         <v>892</v>
       </c>
-      <c r="F223" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G223" s="27" t="s">
-        <v>167</v>
+      <c r="F223" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="H223">
         <v>204</v>
       </c>
     </row>
-    <row r="224" spans="6:8">
-      <c r="F224" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G224" s="27" t="s">
-        <v>165</v>
+    <row r="224" spans="2:8">
+      <c r="B224" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="H224">
         <v>146</v>
       </c>
     </row>
     <row r="225" spans="6:8">
-      <c r="F225" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G225" s="27" t="s">
-        <v>171</v>
+      <c r="F225" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="H225">
         <v>116</v>
       </c>
     </row>
     <row r="226" spans="6:8">
-      <c r="F226" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G226" s="27" t="s">
-        <v>255</v>
+      <c r="F226" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="H226">
         <v>106</v>
       </c>
     </row>
     <row r="227" spans="3:8">
-      <c r="C227" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>257</v>
+      <c r="C227" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E227">
         <v>572</v>
       </c>
-      <c r="F227" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="G227" s="27" t="s">
-        <v>259</v>
+      <c r="F227" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="H227">
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="6:8">
-      <c r="F228" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G228" s="27" t="s">
-        <v>261</v>
+    <row r="228" spans="4:8">
+      <c r="D228" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="H228">
         <v>13</v>
       </c>
     </row>
     <row r="229" spans="6:8">
-      <c r="F229" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G229" s="27" t="s">
-        <v>271</v>
+      <c r="F229" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="H229">
         <v>8</v>
       </c>
     </row>
     <row r="230" spans="6:8">
-      <c r="F230" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="G230" s="27" t="s">
-        <v>263</v>
+      <c r="F230" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="H230">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="3:8">
-      <c r="C231" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D231" s="27" t="s">
-        <v>275</v>
+      <c r="C231" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="E231">
         <v>489</v>
       </c>
-      <c r="F231" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G231" s="27" t="s">
-        <v>277</v>
+      <c r="F231" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="H231">
         <v>482</v>
       </c>
     </row>
-    <row r="232" spans="6:8">
-      <c r="F232" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G232" s="27" t="s">
-        <v>279</v>
+    <row r="232" spans="4:8">
+      <c r="D232" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="H232">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="6:8">
-      <c r="F233" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G233" s="27" t="s">
-        <v>281</v>
+      <c r="F233" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -5724,63 +6061,66 @@
     </row>
     <row r="234" spans="6:8">
       <c r="F234" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H234" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235" spans="3:8">
-      <c r="C235" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D235" s="27" t="s">
-        <v>265</v>
+      <c r="C235" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="E235">
         <v>222</v>
       </c>
-      <c r="F235" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="G235" s="27" t="s">
-        <v>269</v>
+      <c r="F235" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="H235">
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="6:8">
-      <c r="F236" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G236" s="27" t="s">
-        <v>267</v>
+    <row r="236" spans="4:8">
+      <c r="D236" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="H236">
         <v>69</v>
       </c>
     </row>
     <row r="237" spans="6:8">
-      <c r="F237" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="G237" s="27" t="s">
-        <v>348</v>
+      <c r="F237" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="H237">
         <v>9</v>
       </c>
     </row>
     <row r="238" spans="6:8">
-      <c r="F238" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="G238" s="27" t="s">
-        <v>350</v>
+      <c r="F238" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="H238">
         <v>8</v>
@@ -5788,153 +6128,165 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
-      </c>
-      <c r="C239" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D239" s="27" t="s">
-        <v>308</v>
+        <v>340</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="E239">
         <v>638</v>
       </c>
-      <c r="F239" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G239" s="27" t="s">
-        <v>310</v>
+      <c r="F239" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="H239">
         <v>559</v>
       </c>
     </row>
-    <row r="240" spans="6:8">
-      <c r="F240" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G240" s="27" t="s">
-        <v>312</v>
+    <row r="240" spans="2:8">
+      <c r="B240" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="H240">
         <v>37</v>
       </c>
     </row>
     <row r="241" spans="6:8">
-      <c r="F241" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="G241" s="27" t="s">
-        <v>314</v>
+      <c r="F241" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="H241">
         <v>24</v>
       </c>
     </row>
     <row r="242" spans="6:8">
-      <c r="F242" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G242" s="27" t="s">
-        <v>316</v>
+      <c r="F242" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="H242">
         <v>18</v>
       </c>
     </row>
     <row r="243" spans="3:8">
-      <c r="C243" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D243" s="27" t="s">
-        <v>318</v>
+      <c r="C243" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="E243">
         <v>611</v>
       </c>
-      <c r="F243" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="G243" s="27" t="s">
-        <v>320</v>
+      <c r="F243" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="H243">
         <v>529</v>
       </c>
     </row>
-    <row r="244" spans="6:8">
-      <c r="F244" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G244" s="27" t="s">
-        <v>322</v>
+    <row r="244" spans="4:8">
+      <c r="D244" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="H244">
         <v>61</v>
       </c>
     </row>
     <row r="245" spans="6:8">
-      <c r="F245" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G245" s="27" t="s">
-        <v>324</v>
+      <c r="F245" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="H245">
         <v>17</v>
       </c>
     </row>
     <row r="246" spans="6:8">
-      <c r="F246" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="G246" s="27" t="s">
-        <v>352</v>
+      <c r="F246" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="H246">
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="3:8">
-      <c r="C247" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="D247" s="27" t="s">
-        <v>330</v>
+      <c r="C247" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="E247">
         <v>182</v>
       </c>
-      <c r="F247" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G247" s="27" t="s">
-        <v>332</v>
+      <c r="F247" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H247">
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="6:8">
-      <c r="F248" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="G248" s="27" t="s">
-        <v>354</v>
+    <row r="248" spans="4:8">
+      <c r="D248" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="6:8">
-      <c r="F249" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G249" s="27" t="s">
-        <v>356</v>
+      <c r="F249" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -5942,41 +6294,44 @@
     </row>
     <row r="250" spans="6:8">
       <c r="F250" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H250" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="3:8">
-      <c r="C251" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="D251" s="27" t="s">
-        <v>358</v>
+      <c r="C251" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="E251">
         <v>166</v>
       </c>
-      <c r="F251" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G251" s="27" t="s">
-        <v>360</v>
+      <c r="F251" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="H251">
         <v>165</v>
       </c>
     </row>
-    <row r="252" spans="6:8">
-      <c r="F252" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="G252" s="27" t="s">
-        <v>362</v>
+    <row r="252" spans="4:8">
+      <c r="D252" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -5984,24 +6339,24 @@
     </row>
     <row r="253" spans="6:8">
       <c r="F253" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G253" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H253" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="6:8">
       <c r="F254" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G254" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H254" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/deaths number of male  by age group.xlsx
+++ b/deaths number of male  by age group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15380" windowHeight="11280"/>
+    <workbookView windowWidth="16550" windowHeight="10510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="398">
   <si>
     <t>年龄</t>
   </si>
@@ -69,7 +69,7 @@
     <t>数据</t>
   </si>
   <si>
-    <t xml:space="preserve">XVI. </t>
+    <t>XVI. CERTAIN CONDITIONS ORIGINATING IN THE PERINATAL PERIOD</t>
   </si>
   <si>
     <t>P20-29</t>
@@ -87,12 +87,6 @@
     <t>P00-P96</t>
   </si>
   <si>
-    <t>XVI. CERTAIN CONDITIONS ORIGINATING IN THE PERINATAL PERIOD</t>
-  </si>
-  <si>
-    <t>某些情况起源于围产期</t>
-  </si>
-  <si>
     <t>围产期特有的呼吸和心血管疾病</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>VI. DISEASES OF THE NERVOUS SYSTEM</t>
   </si>
   <si>
-    <t xml:space="preserve">XVIII. </t>
-  </si>
-  <si>
     <t>R95-99</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>35-49</t>
   </si>
   <si>
-    <t xml:space="preserve">XVII.    </t>
-  </si>
-  <si>
     <t>Q20-28</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
     <t>80+</t>
   </si>
   <si>
-    <t xml:space="preserve">XX. </t>
-  </si>
-  <si>
     <t>X60-84</t>
   </si>
   <si>
@@ -318,265 +303,265 @@
     <t>Intentional self-harm by hanging, strangulation and suffocation</t>
   </si>
   <si>
+    <t>故意自残</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>Intentional self-harm by jumping from a high place</t>
+  </si>
+  <si>
+    <t>X62</t>
+  </si>
+  <si>
+    <t>Intentional self-poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
+  </si>
+  <si>
+    <t>X81</t>
+  </si>
+  <si>
+    <t>Intentional self-harm by jumping or lying before moving object</t>
+  </si>
+  <si>
+    <t>X40-49</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to noxious substances</t>
+  </si>
+  <si>
+    <t>X42</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
+  </si>
+  <si>
+    <t>意外中毒或接触有毒物质</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>V01-09</t>
+  </si>
+  <si>
+    <t>Pedestrccian injured in transport accident</t>
+  </si>
+  <si>
+    <t>V03</t>
+  </si>
+  <si>
+    <t>Pedestrian injured in collision with car, pick-up truck or van</t>
+  </si>
+  <si>
+    <t>行人在交通事故中受伤</t>
+  </si>
+  <si>
+    <t>V04</t>
+  </si>
+  <si>
+    <t>Pedestrian injured in collision with heavy transport vehicle or bus</t>
+  </si>
+  <si>
+    <t>V05</t>
+  </si>
+  <si>
+    <t>Pedestrian injured in collision with railway train or railway vehicle</t>
+  </si>
+  <si>
+    <t>V40-49</t>
+  </si>
+  <si>
+    <t>Car occupant injured in transport accident</t>
+  </si>
+  <si>
+    <t>V47</t>
+  </si>
+  <si>
+    <t>Car occupant injured in collision with fixed or stationary object</t>
+  </si>
+  <si>
+    <t>汽车乘客在交通事故中受伤</t>
+  </si>
+  <si>
+    <t>V43</t>
+  </si>
+  <si>
+    <t>Car occupant injured in collision with car, pick-up truck or van</t>
+  </si>
+  <si>
+    <t>V48</t>
+  </si>
+  <si>
+    <t>Car occupant injured in noncollision transport accident</t>
+  </si>
+  <si>
+    <t>C69-72</t>
+  </si>
+  <si>
+    <t>Eye, brain and other parts of the central nervous system</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of brain</t>
+  </si>
+  <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>眼睛、大脑和中枢神经系统的其他部分</t>
+  </si>
+  <si>
+    <t>C81-96</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms, stated or presumed to be primary, of lymphoid, haematopoietic and related tissue</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>Non-follicular lymphoma</t>
+  </si>
+  <si>
+    <t>原发或推定为淋巴、造血及相关组织的恶性肿瘤</t>
+  </si>
+  <si>
+    <t>C91</t>
+  </si>
+  <si>
+    <t>Lymphoid leukaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IX. </t>
+  </si>
+  <si>
+    <t>I30-52</t>
+  </si>
+  <si>
+    <t>Other forms of heart disease</t>
+  </si>
+  <si>
+    <t>I42</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>循环系统疾病</t>
+  </si>
+  <si>
+    <t>其他形式的心脏病</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>Cardiac arrest</t>
+  </si>
+  <si>
+    <t>I05-09</t>
+  </si>
+  <si>
+    <t>Chronic rheumatic heart diseases</t>
+  </si>
+  <si>
+    <t>I05</t>
+  </si>
+  <si>
+    <t>Rheumatic mitral valve diseases</t>
+  </si>
+  <si>
+    <t>慢性风湿性心脏病</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
     <t>发病率和死亡率的外因</t>
   </si>
   <si>
-    <t>故意自残</t>
-  </si>
-  <si>
-    <t>X80</t>
-  </si>
-  <si>
-    <t>Intentional self-harm by jumping from a high place</t>
-  </si>
-  <si>
-    <t>X62</t>
-  </si>
-  <si>
-    <t>Intentional self-poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
-  </si>
-  <si>
-    <t>X81</t>
-  </si>
-  <si>
-    <t>Intentional self-harm by jumping or lying before moving object</t>
-  </si>
-  <si>
-    <t>X40-49</t>
-  </si>
-  <si>
-    <t>Accidental poisoning by and exposure to noxious substances</t>
-  </si>
-  <si>
-    <t>X42</t>
-  </si>
-  <si>
-    <t>Accidental poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
-  </si>
-  <si>
-    <t>意外中毒或接触有毒物质</t>
-  </si>
-  <si>
-    <t>X41</t>
-  </si>
-  <si>
-    <t>Accidental poisoning by and exposure to antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>V01-09</t>
-  </si>
-  <si>
-    <t>Pedestrccian injured in transport accident</t>
-  </si>
-  <si>
-    <t>V03</t>
-  </si>
-  <si>
-    <t>Pedestrian injured in collision with car, pick-up truck or van</t>
-  </si>
-  <si>
-    <t>行人在交通事故中受伤</t>
-  </si>
-  <si>
-    <t>V04</t>
-  </si>
-  <si>
-    <t>Pedestrian injured in collision with heavy transport vehicle or bus</t>
-  </si>
-  <si>
-    <t>V05</t>
-  </si>
-  <si>
-    <t>Pedestrian injured in collision with railway train or railway vehicle</t>
-  </si>
-  <si>
-    <t>V40-49</t>
-  </si>
-  <si>
-    <t>Car occupant injured in transport accident</t>
-  </si>
-  <si>
-    <t>V47</t>
-  </si>
-  <si>
-    <t>Car occupant injured in collision with fixed or stationary object</t>
-  </si>
-  <si>
-    <t>汽车乘客在交通事故中受伤</t>
-  </si>
-  <si>
-    <t>V43</t>
-  </si>
-  <si>
-    <t>Car occupant injured in collision with car, pick-up truck or van</t>
-  </si>
-  <si>
-    <t>V48</t>
-  </si>
-  <si>
-    <t>Car occupant injured in noncollision transport accident</t>
+    <t>X43</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to other drugs acting on the autonomic nervous system</t>
+  </si>
+  <si>
+    <t>X44</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to other and unspecified drugs, medicaments and biological substances</t>
+  </si>
+  <si>
+    <t>Y10-34</t>
+  </si>
+  <si>
+    <t>Event of undetermined intent</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified, undetermined intent</t>
+  </si>
+  <si>
+    <t>意向未定事件</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Poisoning by and exposure to antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified, undetermined intent</t>
+  </si>
+  <si>
+    <t>Y34</t>
+  </si>
+  <si>
+    <t>Unspecified event, undetermined intent</t>
+  </si>
+  <si>
+    <t>X85-Y09</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>X99</t>
+  </si>
+  <si>
+    <t>Assault by sharp object</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>X95</t>
+  </si>
+  <si>
+    <t>Assault by other and unspecified firearm discharge</t>
+  </si>
+  <si>
+    <t>Y03</t>
+  </si>
+  <si>
+    <t>Assault by crashing of motor vehicle</t>
+  </si>
+  <si>
+    <t>Y09</t>
+  </si>
+  <si>
+    <t>Assault by unspecified means</t>
   </si>
   <si>
     <t>II.</t>
-  </si>
-  <si>
-    <t>C69-72</t>
-  </si>
-  <si>
-    <t>Eye, brain and other parts of the central nervous system</t>
-  </si>
-  <si>
-    <t>C71</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of brain</t>
-  </si>
-  <si>
-    <t>肿瘤</t>
-  </si>
-  <si>
-    <t>眼睛、大脑和中枢神经系统的其他部分</t>
-  </si>
-  <si>
-    <t>C81-96</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms, stated or presumed to be primary, of lymphoid, haematopoietic and related tissue</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>Non-follicular lymphoma</t>
-  </si>
-  <si>
-    <t>原发或推定为淋巴、造血及相关组织的恶性肿瘤</t>
-  </si>
-  <si>
-    <t>C91</t>
-  </si>
-  <si>
-    <t>Lymphoid leukaemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IX. </t>
-  </si>
-  <si>
-    <t>I30-52</t>
-  </si>
-  <si>
-    <t>Other forms of heart disease</t>
-  </si>
-  <si>
-    <t>I42</t>
-  </si>
-  <si>
-    <t>Cardiomyopathy</t>
-  </si>
-  <si>
-    <t>循环系统疾病</t>
-  </si>
-  <si>
-    <t>其他形式的心脏病</t>
-  </si>
-  <si>
-    <t>I46</t>
-  </si>
-  <si>
-    <t>Cardiac arrest</t>
-  </si>
-  <si>
-    <t>I05-09</t>
-  </si>
-  <si>
-    <t>Chronic rheumatic heart diseases</t>
-  </si>
-  <si>
-    <t>I05</t>
-  </si>
-  <si>
-    <t>Rheumatic mitral valve diseases</t>
-  </si>
-  <si>
-    <t>慢性风湿性心脏病</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>X43</t>
-  </si>
-  <si>
-    <t>Accidental poisoning by and exposure to other drugs acting on the autonomic nervous system</t>
-  </si>
-  <si>
-    <t>X44</t>
-  </si>
-  <si>
-    <t>Accidental poisoning by and exposure to other and unspecified drugs, medicaments and biological substances</t>
-  </si>
-  <si>
-    <t>Y10-34</t>
-  </si>
-  <si>
-    <t>Event of undetermined intent</t>
-  </si>
-  <si>
-    <t>Y12</t>
-  </si>
-  <si>
-    <t>Poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified, undetermined intent</t>
-  </si>
-  <si>
-    <t>意向未定事件</t>
-  </si>
-  <si>
-    <t>Y11</t>
-  </si>
-  <si>
-    <t>Poisoning by and exposure to antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified, undetermined intent</t>
-  </si>
-  <si>
-    <t>Y34</t>
-  </si>
-  <si>
-    <t>Unspecified event, undetermined intent</t>
-  </si>
-  <si>
-    <t>X85-Y09</t>
-  </si>
-  <si>
-    <t>Assault</t>
-  </si>
-  <si>
-    <t>X99</t>
-  </si>
-  <si>
-    <t>Assault by sharp object</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>X95</t>
-  </si>
-  <si>
-    <t>Assault by other and unspecified firearm discharge</t>
-  </si>
-  <si>
-    <t>Y03</t>
-  </si>
-  <si>
-    <t>Assault by crashing of motor vehicle</t>
-  </si>
-  <si>
-    <t>Y09</t>
-  </si>
-  <si>
-    <t>Assault by unspecified means</t>
   </si>
   <si>
     <t>C92</t>
@@ -1325,14 +1310,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,7 +1331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,13 +1350,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,27 +1367,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1416,13 +1385,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,14 +1407,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1463,6 +1417,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,7 +1486,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,25 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,25 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,37 +1606,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,25 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,37 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,6 +1677,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1728,17 +1728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,15 +1750,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,17 +1769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,145 +1785,145 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1958,40 +1943,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2349,7 +2334,7 @@
   <dimension ref="A1:P254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2387,11 +2372,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2420,116 +2405,113 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="4:13">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="16">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="6:13">
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="6:13">
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="6:13">
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>37</v>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="M7" s="18">
         <v>60</v>
@@ -2539,22 +2521,22 @@
     <row r="8" spans="3:14">
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>42</v>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="18">
         <v>18</v>
@@ -2565,19 +2547,19 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="18">
         <v>5</v>
@@ -2588,64 +2570,64 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="18"/>
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="3:14">
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="16"/>
+      <c r="K11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="18"/>
       <c r="N11" s="19"/>
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="7"/>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>37</v>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="M12" s="18">
         <v>403</v>
@@ -2656,19 +2638,19 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="M13" s="18">
         <v>35</v>
@@ -2679,19 +2661,19 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="M14" s="18">
         <v>26</v>
@@ -2703,51 +2685,51 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>21</v>
       </c>
       <c r="J15" s="19"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -2756,22 +2738,22 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="19"/>
-      <c r="K17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="16">
+      <c r="K17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="5">
         <v>705</v>
       </c>
     </row>
@@ -2779,22 +2761,22 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="16">
+      <c r="M18" s="5">
         <v>234</v>
       </c>
     </row>
@@ -2803,50 +2785,50 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="K19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="16">
+      <c r="K19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="5">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2860,37 +2842,37 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="6:13">
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>42</v>
+      <c r="K22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="M22" s="20">
         <v>5409</v>
@@ -2898,29 +2880,29 @@
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="J23" s="19"/>
-      <c r="K23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>45</v>
+      <c r="K23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="M23" s="20">
         <v>3877</v>
@@ -2929,23 +2911,23 @@
     <row r="24" spans="3:13">
       <c r="C24" s="6"/>
       <c r="D24" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J24" s="19"/>
-      <c r="K24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>86</v>
+      <c r="K24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="M24" s="20">
         <v>1402</v>
@@ -2955,13 +2937,13 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
@@ -2974,34 +2956,34 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="15"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:16">
       <c r="A27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>45</v>
+      <c r="K27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="M27" s="20">
         <v>3518</v>
@@ -3012,35 +2994,35 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
       <c r="J28" s="19"/>
-      <c r="K28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>42</v>
+      <c r="K28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="M28" s="20">
         <v>2845</v>
@@ -3050,27 +3032,24 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="13"/>
-      <c r="B29" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>86</v>
+      <c r="K29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="M29" s="20">
         <v>1771</v>
@@ -3078,14 +3057,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3097,10 +3078,10 @@
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3110,19 +3091,19 @@
       <c r="A32" s="13"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>8</v>
@@ -3133,13 +3114,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -3151,13 +3132,13 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3166,38 +3147,38 @@
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3211,19 +3192,19 @@
     </row>
     <row r="37" spans="4:12">
       <c r="D37" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L37" s="21">
         <v>164</v>
@@ -3231,16 +3212,16 @@
     </row>
     <row r="38" spans="6:12">
       <c r="F38" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38" s="21">
         <v>806</v>
@@ -3248,16 +3229,16 @@
     </row>
     <row r="39" spans="6:12">
       <c r="F39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L39" s="21">
         <v>2460</v>
@@ -3265,25 +3246,25 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L40" s="21">
         <v>25787</v>
@@ -3291,19 +3272,19 @@
     </row>
     <row r="41" spans="4:12">
       <c r="D41" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L41" s="24">
         <v>29092</v>
@@ -3311,10 +3292,10 @@
     </row>
     <row r="42" spans="6:8">
       <c r="F42" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3322,34 +3303,34 @@
     </row>
     <row r="43" ht="16" customHeight="1" spans="6:8">
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1"/>
     <row r="45" ht="16" customHeight="1" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H45">
         <v>8</v>
@@ -3357,20 +3338,20 @@
     </row>
     <row r="46" ht="16" customHeight="1" spans="2:8">
       <c r="B46" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="2:8">
@@ -3378,13 +3359,13 @@
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="2:8">
@@ -3392,13 +3373,13 @@
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="2:4">
@@ -3408,19 +3389,19 @@
     </row>
     <row r="50" ht="16" customHeight="1" spans="3:8">
       <c r="C50" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -3428,13 +3409,13 @@
     </row>
     <row r="51" ht="16" customHeight="1" spans="4:8">
       <c r="D51" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -3442,44 +3423,44 @@
     </row>
     <row r="52" ht="16" customHeight="1" spans="6:8">
       <c r="F52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="6:8">
       <c r="F53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="2:8">
-      <c r="B54" s="5" t="s">
-        <v>141</v>
+      <c r="B54" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3487,17 +3468,17 @@
     </row>
     <row r="55" ht="16" customHeight="1" spans="2:8">
       <c r="B55" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3505,41 +3486,41 @@
     </row>
     <row r="56" ht="16" customHeight="1" spans="6:8">
       <c r="F56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="16" customHeight="1" spans="6:8">
       <c r="F57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="3:8">
       <c r="C58" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3547,38 +3528,38 @@
     </row>
     <row r="59" ht="16" customHeight="1" spans="4:8">
       <c r="D59" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="6:8">
       <c r="F60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="6:8">
       <c r="F61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:1">
@@ -3586,25 +3567,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E63">
         <v>188</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H63">
         <v>159</v>
@@ -3612,29 +3593,29 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="C64" s="15"/>
       <c r="D64" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H64">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="3:8">
-      <c r="C65" s="5"/>
+      <c r="C65" s="15"/>
       <c r="F65" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -3642,10 +3623,10 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3653,19 +3634,19 @@
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E67">
         <v>131</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H67">
         <v>104</v>
@@ -3673,13 +3654,13 @@
     </row>
     <row r="68" spans="4:8">
       <c r="D68" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -3689,10 +3670,10 @@
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -3702,10 +3683,10 @@
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -3713,19 +3694,19 @@
     </row>
     <row r="71" spans="3:8">
       <c r="C71" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E71">
         <v>21</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H71">
         <v>10</v>
@@ -3734,13 +3715,13 @@
     <row r="72" spans="3:8">
       <c r="C72" s="6"/>
       <c r="D72" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -3750,10 +3731,10 @@
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -3763,30 +3744,30 @@
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E75">
         <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H75">
         <v>9</v>
@@ -3794,13 +3775,13 @@
     </row>
     <row r="76" spans="4:8">
       <c r="D76" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -3808,10 +3789,10 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3819,10 +3800,10 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3830,25 +3811,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D79" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E79">
         <v>12</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -3856,16 +3837,16 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="G80" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -3874,10 +3855,10 @@
     <row r="81" spans="2:8">
       <c r="B81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -3886,31 +3867,31 @@
     <row r="82" spans="2:8">
       <c r="B82" s="7"/>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="7"/>
       <c r="C83" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>9</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H83">
         <v>9</v>
@@ -3919,58 +3900,58 @@
     <row r="84" spans="2:8">
       <c r="B84" s="7"/>
       <c r="D84" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="7"/>
       <c r="F85" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="7"/>
       <c r="F86" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="7"/>
       <c r="C87" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E87">
         <v>8</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -3979,13 +3960,13 @@
     <row r="88" spans="2:8">
       <c r="B88" s="7"/>
       <c r="D88" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -3994,10 +3975,10 @@
     <row r="89" spans="2:8">
       <c r="B89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -4005,10 +3986,10 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -4017,10 +3998,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="4"/>
       <c r="F91" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -4028,25 +4009,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>197</v>
+        <v>48</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E92">
         <v>7</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H92">
         <v>7</v>
@@ -4055,64 +4036,64 @@
     <row r="93" spans="1:8">
       <c r="A93" s="4"/>
       <c r="B93" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="7"/>
       <c r="F94" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="4"/>
       <c r="B95" s="7"/>
       <c r="F95" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="4"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E96">
         <v>7</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H96">
         <v>7</v>
@@ -4122,61 +4103,61 @@
       <c r="A97" s="4"/>
       <c r="B97" s="7"/>
       <c r="D97" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4"/>
       <c r="B98" s="7"/>
       <c r="F98" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="4"/>
       <c r="B99" s="7"/>
       <c r="F99" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="4"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E100">
         <v>4</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -4186,13 +4167,13 @@
       <c r="A101" s="4"/>
       <c r="B101" s="7"/>
       <c r="D101" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -4202,10 +4183,10 @@
       <c r="A102" s="4"/>
       <c r="B102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -4217,25 +4198,25 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E104">
         <v>446</v>
       </c>
       <c r="F104" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H104">
         <v>372</v>
@@ -4243,16 +4224,16 @@
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="8" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H105">
         <v>50</v>
@@ -4260,10 +4241,10 @@
     </row>
     <row r="106" spans="6:8">
       <c r="F106" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H106">
         <v>19</v>
@@ -4271,10 +4252,10 @@
     </row>
     <row r="107" spans="6:8">
       <c r="F107" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -4282,19 +4263,19 @@
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D108" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E108">
         <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H108">
         <v>102</v>
@@ -4302,13 +4283,13 @@
     </row>
     <row r="109" spans="4:8">
       <c r="D109" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H109">
         <v>12</v>
@@ -4316,10 +4297,10 @@
     </row>
     <row r="110" spans="6:8">
       <c r="F110" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H110">
         <v>8</v>
@@ -4327,10 +4308,10 @@
     </row>
     <row r="111" spans="6:8">
       <c r="F111" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H111">
         <v>6</v>
@@ -4338,19 +4319,19 @@
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E112">
         <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H112">
         <v>17</v>
@@ -4358,13 +4339,13 @@
     </row>
     <row r="113" spans="4:8">
       <c r="D113" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F113" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -4372,10 +4353,10 @@
     </row>
     <row r="114" spans="6:8">
       <c r="F114" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -4383,10 +4364,10 @@
     </row>
     <row r="115" spans="6:11">
       <c r="F115" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -4395,19 +4376,19 @@
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E116">
         <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H116">
         <v>11</v>
@@ -4415,13 +4396,13 @@
     </row>
     <row r="117" spans="4:8">
       <c r="D117" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F117" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F117" t="s">
-        <v>239</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -4429,10 +4410,10 @@
     </row>
     <row r="118" spans="6:8">
       <c r="F118" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -4440,25 +4421,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E119">
         <v>117</v>
       </c>
       <c r="F119" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G119" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H119">
         <v>64</v>
@@ -4466,16 +4447,16 @@
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F120" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H120">
         <v>53</v>
@@ -4483,41 +4464,41 @@
     </row>
     <row r="121" spans="6:8">
       <c r="F121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="6:8">
       <c r="F122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="3:10">
       <c r="C123" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E123">
         <v>49</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H123" s="7">
         <v>22</v>
@@ -4527,13 +4508,13 @@
     </row>
     <row r="124" spans="4:8">
       <c r="D124" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H124">
         <v>11</v>
@@ -4541,10 +4522,10 @@
     </row>
     <row r="125" spans="6:8">
       <c r="F125" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -4552,10 +4533,10 @@
     </row>
     <row r="126" spans="6:8">
       <c r="F126" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -4563,10 +4544,10 @@
     </row>
     <row r="127" spans="6:8">
       <c r="F127" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -4574,10 +4555,10 @@
     </row>
     <row r="128" spans="6:8">
       <c r="F128" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -4585,19 +4566,19 @@
     </row>
     <row r="129" spans="3:8">
       <c r="C129" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E129" s="7">
         <v>32</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H129">
         <v>9</v>
@@ -4605,13 +4586,13 @@
     </row>
     <row r="130" spans="4:8">
       <c r="D130" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H130">
         <v>6</v>
@@ -4619,10 +4600,10 @@
     </row>
     <row r="131" spans="6:8">
       <c r="F131" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H131">
         <v>6</v>
@@ -4630,10 +4611,10 @@
     </row>
     <row r="132" spans="6:8">
       <c r="F132" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -4641,10 +4622,10 @@
     </row>
     <row r="133" spans="6:8">
       <c r="F133" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -4652,19 +4633,19 @@
     </row>
     <row r="134" spans="3:8">
       <c r="C134" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E134">
         <v>12</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H134">
         <v>10</v>
@@ -4672,13 +4653,13 @@
     </row>
     <row r="135" spans="4:8">
       <c r="D135" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -4686,10 +4667,10 @@
     </row>
     <row r="136" spans="6:8">
       <c r="F136" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -4697,36 +4678,36 @@
     </row>
     <row r="137" spans="6:8">
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E138">
         <v>77</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H138">
         <v>13</v>
@@ -4734,16 +4715,16 @@
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H139">
         <v>12</v>
@@ -4751,10 +4732,10 @@
     </row>
     <row r="140" spans="6:8">
       <c r="F140" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H140">
         <v>11</v>
@@ -4762,10 +4743,10 @@
     </row>
     <row r="141" spans="6:8">
       <c r="F141" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H141">
         <v>11</v>
@@ -4773,19 +4754,19 @@
     </row>
     <row r="142" spans="3:8">
       <c r="C142" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E142">
         <v>38</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H142">
         <v>34</v>
@@ -4793,13 +4774,13 @@
     </row>
     <row r="143" spans="4:8">
       <c r="D143" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -4807,10 +4788,10 @@
     </row>
     <row r="144" spans="6:8">
       <c r="F144" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -4818,30 +4799,30 @@
     </row>
     <row r="145" spans="6:8">
       <c r="F145" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="3:8">
       <c r="C146" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E146">
         <v>25</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H146">
         <v>17</v>
@@ -4849,13 +4830,13 @@
     </row>
     <row r="147" spans="4:8">
       <c r="D147" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H147">
         <v>8</v>
@@ -4863,35 +4844,35 @@
     </row>
     <row r="148" spans="7:8">
       <c r="G148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="7:8">
       <c r="G149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="3:8">
       <c r="C150" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E150">
         <v>19</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H150">
         <v>19</v>
@@ -4899,38 +4880,38 @@
     </row>
     <row r="151" spans="4:8">
       <c r="D151" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="6:8">
       <c r="F153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
@@ -4938,25 +4919,25 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E155">
         <v>1850</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H155">
         <v>423</v>
@@ -4964,16 +4945,16 @@
     </row>
     <row r="156" spans="2:8">
       <c r="B156" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H156">
         <v>302</v>
@@ -4981,10 +4962,10 @@
     </row>
     <row r="157" spans="6:8">
       <c r="F157" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H157">
         <v>299</v>
@@ -4992,10 +4973,10 @@
     </row>
     <row r="158" ht="19" customHeight="1" spans="6:8">
       <c r="F158" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H158">
         <v>255</v>
@@ -5003,19 +4984,19 @@
     </row>
     <row r="159" spans="3:8">
       <c r="C159" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E159">
         <v>1488</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H159">
         <v>1400</v>
@@ -5023,13 +5004,13 @@
     </row>
     <row r="160" spans="4:8">
       <c r="D160" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H160">
         <v>63</v>
@@ -5037,10 +5018,10 @@
     </row>
     <row r="161" spans="6:8">
       <c r="F161" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H161">
         <v>16</v>
@@ -5048,10 +5029,10 @@
     </row>
     <row r="162" spans="6:8">
       <c r="F162" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -5059,19 +5040,19 @@
     </row>
     <row r="163" spans="3:8">
       <c r="C163" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E163">
         <v>461</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H163">
         <v>441</v>
@@ -5079,13 +5060,13 @@
     </row>
     <row r="164" spans="4:8">
       <c r="D164" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H164">
         <v>13</v>
@@ -5093,10 +5074,10 @@
     </row>
     <row r="165" spans="6:8">
       <c r="F165" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -5104,10 +5085,10 @@
     </row>
     <row r="166" spans="6:8">
       <c r="F166" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -5115,19 +5096,19 @@
     </row>
     <row r="167" spans="3:8">
       <c r="C167" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E167">
         <v>364</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H167">
         <v>92</v>
@@ -5135,13 +5116,13 @@
     </row>
     <row r="168" spans="4:8">
       <c r="D168" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H168">
         <v>77</v>
@@ -5149,10 +5130,10 @@
     </row>
     <row r="169" spans="6:8">
       <c r="F169" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H169">
         <v>53</v>
@@ -5160,10 +5141,10 @@
     </row>
     <row r="170" spans="6:8">
       <c r="F170" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H170">
         <v>50</v>
@@ -5171,25 +5152,25 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E172">
         <v>2287</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H172">
         <v>1370</v>
@@ -5197,16 +5178,16 @@
     </row>
     <row r="173" spans="2:8">
       <c r="B173" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H173">
         <v>907</v>
@@ -5214,10 +5195,10 @@
     </row>
     <row r="174" spans="6:8">
       <c r="F174" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H174">
         <v>10</v>
@@ -5225,30 +5206,30 @@
     </row>
     <row r="175" spans="6:8">
       <c r="F175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="3:8">
       <c r="C176" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E176">
         <v>694</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H176">
         <v>195</v>
@@ -5256,13 +5237,13 @@
     </row>
     <row r="177" spans="4:8">
       <c r="D177" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H177">
         <v>154</v>
@@ -5270,10 +5251,10 @@
     </row>
     <row r="178" spans="6:8">
       <c r="F178" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H178">
         <v>128</v>
@@ -5281,10 +5262,10 @@
     </row>
     <row r="179" spans="6:8">
       <c r="F179" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H179">
         <v>123</v>
@@ -5292,19 +5273,19 @@
     </row>
     <row r="180" spans="3:8">
       <c r="C180" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E180">
         <v>420</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H180">
         <v>109</v>
@@ -5312,13 +5293,13 @@
     </row>
     <row r="181" spans="4:8">
       <c r="D181" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H181">
         <v>77</v>
@@ -5326,10 +5307,10 @@
     </row>
     <row r="182" spans="6:8">
       <c r="F182" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H182">
         <v>76</v>
@@ -5337,10 +5318,10 @@
     </row>
     <row r="183" spans="6:8">
       <c r="F183" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H183">
         <v>65</v>
@@ -5348,19 +5329,19 @@
     </row>
     <row r="184" spans="3:8">
       <c r="C184" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E184">
         <v>226</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H184">
         <v>123</v>
@@ -5368,13 +5349,13 @@
     </row>
     <row r="185" spans="4:8">
       <c r="D185" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H185">
         <v>68</v>
@@ -5382,10 +5363,10 @@
     </row>
     <row r="186" spans="6:8">
       <c r="F186" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H186">
         <v>17</v>
@@ -5393,10 +5374,10 @@
     </row>
     <row r="187" spans="6:8">
       <c r="F187" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H187">
         <v>6</v>
@@ -5404,10 +5385,10 @@
     </row>
     <row r="188" spans="6:8">
       <c r="F188" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H188">
         <v>6</v>
@@ -5415,25 +5396,25 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E189">
         <v>831</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H189">
         <v>765</v>
@@ -5441,16 +5422,16 @@
     </row>
     <row r="190" spans="2:8">
       <c r="B190" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H190">
         <v>29</v>
@@ -5458,10 +5439,10 @@
     </row>
     <row r="191" spans="6:8">
       <c r="F191" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H191">
         <v>27</v>
@@ -5469,10 +5450,10 @@
     </row>
     <row r="192" spans="6:8">
       <c r="F192" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H192">
         <v>9</v>
@@ -5480,19 +5461,19 @@
     </row>
     <row r="193" spans="3:8">
       <c r="C193" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E193">
         <v>263</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H193">
         <v>186</v>
@@ -5500,13 +5481,13 @@
     </row>
     <row r="194" spans="4:8">
       <c r="D194" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H194">
         <v>48</v>
@@ -5514,10 +5495,10 @@
     </row>
     <row r="195" spans="6:8">
       <c r="F195" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H195">
         <v>13</v>
@@ -5525,10 +5506,10 @@
     </row>
     <row r="196" spans="6:8">
       <c r="F196" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H196">
         <v>6</v>
@@ -5536,10 +5517,10 @@
     </row>
     <row r="197" spans="6:8">
       <c r="F197" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H197">
         <v>6</v>
@@ -5547,19 +5528,19 @@
     </row>
     <row r="198" spans="3:8">
       <c r="C198" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E198">
         <v>202</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H198">
         <v>2202</v>
@@ -5567,55 +5548,55 @@
     </row>
     <row r="199" spans="4:8">
       <c r="D199" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="6:8">
       <c r="F200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="6:8">
       <c r="F201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="3:8">
       <c r="C202" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E202">
         <v>41</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H202">
         <v>27</v>
@@ -5623,13 +5604,13 @@
     </row>
     <row r="203" spans="4:8">
       <c r="D203" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H203">
         <v>5</v>
@@ -5637,10 +5618,10 @@
     </row>
     <row r="204" spans="6:8">
       <c r="F204" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H204">
         <v>5</v>
@@ -5648,10 +5629,10 @@
     </row>
     <row r="205" spans="6:8">
       <c r="F205" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -5662,25 +5643,25 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E207">
         <v>1581</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H207">
         <v>238</v>
@@ -5688,16 +5669,16 @@
     </row>
     <row r="208" spans="2:8">
       <c r="B208" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H208">
         <v>148</v>
@@ -5705,10 +5686,10 @@
     </row>
     <row r="209" spans="6:8">
       <c r="F209" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H209">
         <v>94</v>
@@ -5716,10 +5697,10 @@
     </row>
     <row r="210" spans="6:8">
       <c r="F210" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H210">
         <v>60</v>
@@ -5727,19 +5708,19 @@
     </row>
     <row r="211" spans="3:8">
       <c r="C211" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E211">
         <v>891</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H211">
         <v>350</v>
@@ -5747,13 +5728,13 @@
     </row>
     <row r="212" spans="4:8">
       <c r="D212" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H212">
         <v>188</v>
@@ -5761,10 +5742,10 @@
     </row>
     <row r="213" spans="6:8">
       <c r="F213" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H213">
         <v>156</v>
@@ -5772,10 +5753,10 @@
     </row>
     <row r="214" spans="6:8">
       <c r="F214" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H214">
         <v>77</v>
@@ -5783,19 +5764,19 @@
     </row>
     <row r="215" spans="3:8">
       <c r="C215" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E215">
         <v>618</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H215">
         <v>238</v>
@@ -5803,13 +5784,13 @@
     </row>
     <row r="216" spans="4:8">
       <c r="D216" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H216">
         <v>148</v>
@@ -5817,10 +5798,10 @@
     </row>
     <row r="217" spans="6:8">
       <c r="F217" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H217">
         <v>94</v>
@@ -5828,10 +5809,10 @@
     </row>
     <row r="218" spans="6:8">
       <c r="F218" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H218">
         <v>60</v>
@@ -5839,19 +5820,19 @@
     </row>
     <row r="219" spans="3:8">
       <c r="C219" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E219">
         <v>245</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H219">
         <v>128</v>
@@ -5859,13 +5840,13 @@
     </row>
     <row r="220" spans="4:8">
       <c r="D220" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H220">
         <v>95</v>
@@ -5873,10 +5854,10 @@
     </row>
     <row r="221" spans="6:8">
       <c r="F221" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H221">
         <v>11</v>
@@ -5884,10 +5865,10 @@
     </row>
     <row r="222" spans="6:8">
       <c r="F222" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H222">
         <v>6</v>
@@ -5895,25 +5876,25 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B223" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E223">
         <v>892</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H223">
         <v>204</v>
@@ -5921,16 +5902,16 @@
     </row>
     <row r="224" spans="2:8">
       <c r="B224" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H224">
         <v>146</v>
@@ -5938,10 +5919,10 @@
     </row>
     <row r="225" spans="6:8">
       <c r="F225" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H225">
         <v>116</v>
@@ -5949,10 +5930,10 @@
     </row>
     <row r="226" spans="6:8">
       <c r="F226" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H226">
         <v>106</v>
@@ -5960,19 +5941,19 @@
     </row>
     <row r="227" spans="3:8">
       <c r="C227" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E227">
         <v>572</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H227">
         <v>545</v>
@@ -5980,13 +5961,13 @@
     </row>
     <row r="228" spans="4:8">
       <c r="D228" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H228">
         <v>13</v>
@@ -5994,10 +5975,10 @@
     </row>
     <row r="229" spans="6:8">
       <c r="F229" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H229">
         <v>8</v>
@@ -6005,10 +5986,10 @@
     </row>
     <row r="230" spans="6:8">
       <c r="F230" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -6016,19 +5997,19 @@
     </row>
     <row r="231" spans="3:8">
       <c r="C231" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E231">
         <v>489</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H231">
         <v>482</v>
@@ -6036,13 +6017,13 @@
     </row>
     <row r="232" spans="4:8">
       <c r="D232" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H232">
         <v>5</v>
@@ -6050,10 +6031,10 @@
     </row>
     <row r="233" spans="6:8">
       <c r="F233" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -6061,30 +6042,30 @@
     </row>
     <row r="234" spans="6:8">
       <c r="F234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="3:8">
       <c r="C235" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E235">
         <v>222</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H235">
         <v>135</v>
@@ -6092,13 +6073,13 @@
     </row>
     <row r="236" spans="4:8">
       <c r="D236" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H236">
         <v>69</v>
@@ -6106,10 +6087,10 @@
     </row>
     <row r="237" spans="6:8">
       <c r="F237" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H237">
         <v>9</v>
@@ -6117,10 +6098,10 @@
     </row>
     <row r="238" spans="6:8">
       <c r="F238" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H238">
         <v>8</v>
@@ -6128,25 +6109,25 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E239">
         <v>638</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H239">
         <v>559</v>
@@ -6154,16 +6135,16 @@
     </row>
     <row r="240" spans="2:8">
       <c r="B240" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H240">
         <v>37</v>
@@ -6171,10 +6152,10 @@
     </row>
     <row r="241" spans="6:8">
       <c r="F241" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H241">
         <v>24</v>
@@ -6182,10 +6163,10 @@
     </row>
     <row r="242" spans="6:8">
       <c r="F242" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H242">
         <v>18</v>
@@ -6193,19 +6174,19 @@
     </row>
     <row r="243" spans="3:8">
       <c r="C243" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E243">
         <v>611</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H243">
         <v>529</v>
@@ -6213,13 +6194,13 @@
     </row>
     <row r="244" spans="4:8">
       <c r="D244" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H244">
         <v>61</v>
@@ -6227,10 +6208,10 @@
     </row>
     <row r="245" spans="6:8">
       <c r="F245" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H245">
         <v>17</v>
@@ -6238,10 +6219,10 @@
     </row>
     <row r="246" spans="6:8">
       <c r="F246" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -6249,19 +6230,19 @@
     </row>
     <row r="247" spans="3:8">
       <c r="C247" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E247">
         <v>182</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H247">
         <v>180</v>
@@ -6269,13 +6250,13 @@
     </row>
     <row r="248" spans="4:8">
       <c r="D248" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -6283,10 +6264,10 @@
     </row>
     <row r="249" spans="6:8">
       <c r="F249" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -6294,30 +6275,30 @@
     </row>
     <row r="250" spans="6:8">
       <c r="F250" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H250" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="3:8">
       <c r="C251" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E251">
         <v>166</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H251">
         <v>165</v>
@@ -6325,13 +6306,13 @@
     </row>
     <row r="252" spans="4:8">
       <c r="D252" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -6339,24 +6320,24 @@
     </row>
     <row r="253" spans="6:8">
       <c r="F253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="6:8">
       <c r="F254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
